--- a/app/models/q.xlsx
+++ b/app/models/q.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10708"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pza/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TWC\Documents\GitHub\node\app\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ACEF266-63AF-BA41-887C-844D3F95D17D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE890C35-0CCC-4BFE-9C83-A22EF268D957}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20060" xr2:uid="{7889E720-8609-EF49-8EC5-B4582020CCC4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7889E720-8609-EF49-8EC5-B4582020CCC4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2900,17 +2900,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDAA70B2-DD43-794F-8658-1C8B042F4ACA}">
   <dimension ref="A1:B952"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A296" zoomScaleNormal="179" workbookViewId="0">
-      <selection activeCell="A306" activeCellId="1" sqref="A308:XFD308 A305:XFD306"/>
+    <sheetView tabSelected="1" topLeftCell="A353" zoomScaleNormal="179" workbookViewId="0">
+      <selection activeCell="A326" sqref="A326"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="46.33203125" customWidth="1"/>
-    <col min="2" max="2" width="35.1640625" customWidth="1"/>
+    <col min="1" max="1" width="168.8984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>826</v>
       </c>
@@ -2918,7 +2918,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2926,7 +2926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -2934,7 +2934,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -2942,7 +2942,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -2950,7 +2950,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -2958,7 +2958,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -2966,7 +2966,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
@@ -2974,7 +2974,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
@@ -2982,7 +2982,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
@@ -2990,7 +2990,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
@@ -2998,7 +2998,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
@@ -3006,7 +3006,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>22</v>
       </c>
@@ -3014,7 +3014,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>24</v>
       </c>
@@ -3022,7 +3022,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>26</v>
       </c>
@@ -3030,7 +3030,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>28</v>
       </c>
@@ -3038,7 +3038,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>30</v>
       </c>
@@ -3046,7 +3046,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>32</v>
       </c>
@@ -3054,7 +3054,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>34</v>
       </c>
@@ -3062,7 +3062,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>36</v>
       </c>
@@ -3070,7 +3070,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>38</v>
       </c>
@@ -3078,7 +3078,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>40</v>
       </c>
@@ -3086,7 +3086,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>40</v>
       </c>
@@ -3094,7 +3094,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>42</v>
       </c>
@@ -3102,7 +3102,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>44</v>
       </c>
@@ -3110,7 +3110,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>45</v>
       </c>
@@ -3118,7 +3118,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>46</v>
       </c>
@@ -3126,7 +3126,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>45</v>
       </c>
@@ -3134,7 +3134,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>46</v>
       </c>
@@ -3142,7 +3142,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>46</v>
       </c>
@@ -3150,7 +3150,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>46</v>
       </c>
@@ -3158,7 +3158,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>45</v>
       </c>
@@ -3166,7 +3166,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>45</v>
       </c>
@@ -3174,7 +3174,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>45</v>
       </c>
@@ -3182,7 +3182,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>46</v>
       </c>
@@ -3190,7 +3190,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>47</v>
       </c>
@@ -3198,7 +3198,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>48</v>
       </c>
@@ -3206,7 +3206,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>47</v>
       </c>
@@ -3214,7 +3214,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>48</v>
       </c>
@@ -3222,7 +3222,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>49</v>
       </c>
@@ -3230,7 +3230,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>50</v>
       </c>
@@ -3238,7 +3238,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>52</v>
       </c>
@@ -3246,7 +3246,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>54</v>
       </c>
@@ -3254,7 +3254,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>56</v>
       </c>
@@ -3262,7 +3262,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>58</v>
       </c>
@@ -3270,7 +3270,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>60</v>
       </c>
@@ -3278,7 +3278,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>62</v>
       </c>
@@ -3286,7 +3286,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>64</v>
       </c>
@@ -3294,7 +3294,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>66</v>
       </c>
@@ -3302,7 +3302,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>68</v>
       </c>
@@ -3310,7 +3310,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>70</v>
       </c>
@@ -3318,7 +3318,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>72</v>
       </c>
@@ -3326,7 +3326,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>73</v>
       </c>
@@ -3334,7 +3334,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>75</v>
       </c>
@@ -3342,7 +3342,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>77</v>
       </c>
@@ -3350,7 +3350,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>48</v>
       </c>
@@ -3358,7 +3358,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>48</v>
       </c>
@@ -3366,7 +3366,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>48</v>
       </c>
@@ -3374,7 +3374,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>79</v>
       </c>
@@ -3382,7 +3382,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>81</v>
       </c>
@@ -3390,7 +3390,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>83</v>
       </c>
@@ -3398,7 +3398,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>85</v>
       </c>
@@ -3406,7 +3406,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>87</v>
       </c>
@@ -3414,7 +3414,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>89</v>
       </c>
@@ -3422,7 +3422,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>91</v>
       </c>
@@ -3430,7 +3430,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>93</v>
       </c>
@@ -3438,7 +3438,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>95</v>
       </c>
@@ -3446,7 +3446,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>97</v>
       </c>
@@ -3454,7 +3454,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>99</v>
       </c>
@@ -3462,7 +3462,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>101</v>
       </c>
@@ -3470,7 +3470,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>103</v>
       </c>
@@ -3478,7 +3478,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>105</v>
       </c>
@@ -3486,7 +3486,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>107</v>
       </c>
@@ -3494,7 +3494,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>109</v>
       </c>
@@ -3502,7 +3502,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>111</v>
       </c>
@@ -3510,7 +3510,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>68</v>
       </c>
@@ -3518,7 +3518,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>113</v>
       </c>
@@ -3526,7 +3526,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>93</v>
       </c>
@@ -3534,7 +3534,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>115</v>
       </c>
@@ -3542,7 +3542,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>117</v>
       </c>
@@ -3550,7 +3550,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>119</v>
       </c>
@@ -3558,7 +3558,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>121</v>
       </c>
@@ -3566,7 +3566,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>123</v>
       </c>
@@ -3574,7 +3574,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>125</v>
       </c>
@@ -3582,7 +3582,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>127</v>
       </c>
@@ -3590,7 +3590,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>129</v>
       </c>
@@ -3598,7 +3598,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>131</v>
       </c>
@@ -3606,7 +3606,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>125</v>
       </c>
@@ -3614,7 +3614,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>133</v>
       </c>
@@ -3622,7 +3622,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>127</v>
       </c>
@@ -3630,7 +3630,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>135</v>
       </c>
@@ -3638,7 +3638,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>135</v>
       </c>
@@ -3646,7 +3646,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>133</v>
       </c>
@@ -3654,7 +3654,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>125</v>
       </c>
@@ -3662,7 +3662,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
         <v>127</v>
       </c>
@@ -3670,7 +3670,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
         <v>137</v>
       </c>
@@ -3678,7 +3678,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
         <v>139</v>
       </c>
@@ -3686,7 +3686,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
         <v>141</v>
       </c>
@@ -3694,7 +3694,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
         <v>143</v>
       </c>
@@ -3702,7 +3702,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>125</v>
       </c>
@@ -3710,7 +3710,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>127</v>
       </c>
@@ -3718,7 +3718,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>133</v>
       </c>
@@ -3726,7 +3726,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>145</v>
       </c>
@@ -3734,7 +3734,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>147</v>
       </c>
@@ -3742,7 +3742,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
         <v>145</v>
       </c>
@@ -3750,7 +3750,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
         <v>149</v>
       </c>
@@ -3758,7 +3758,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
         <v>151</v>
       </c>
@@ -3766,7 +3766,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
         <v>153</v>
       </c>
@@ -3774,7 +3774,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
         <v>154</v>
       </c>
@@ -3782,7 +3782,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
         <v>156</v>
       </c>
@@ -3790,7 +3790,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
         <v>158</v>
       </c>
@@ -3798,7 +3798,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
         <v>159</v>
       </c>
@@ -3806,7 +3806,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
         <v>160</v>
       </c>
@@ -3814,7 +3814,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
         <v>162</v>
       </c>
@@ -3822,7 +3822,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
         <v>164</v>
       </c>
@@ -3830,7 +3830,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
         <v>166</v>
       </c>
@@ -3838,7 +3838,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
         <v>168</v>
       </c>
@@ -3846,7 +3846,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
         <v>170</v>
       </c>
@@ -3854,7 +3854,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
         <v>172</v>
       </c>
@@ -3862,7 +3862,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="120" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
         <v>174</v>
       </c>
@@ -3870,7 +3870,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="121" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
         <v>176</v>
       </c>
@@ -3878,7 +3878,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="122" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
         <v>178</v>
       </c>
@@ -3886,7 +3886,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="123" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
         <v>180</v>
       </c>
@@ -3894,7 +3894,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="124" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
         <v>182</v>
       </c>
@@ -3902,7 +3902,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="125" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
         <v>184</v>
       </c>
@@ -3910,7 +3910,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="126" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
         <v>186</v>
       </c>
@@ -3918,7 +3918,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="127" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
         <v>188</v>
       </c>
@@ -3926,7 +3926,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="128" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A128" s="2" t="s">
         <v>190</v>
       </c>
@@ -3934,7 +3934,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="129" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A129" s="2" t="s">
         <v>192</v>
       </c>
@@ -3942,7 +3942,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="130" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A130" s="2" t="s">
         <v>194</v>
       </c>
@@ -3950,7 +3950,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="131" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A131" s="2" t="s">
         <v>196</v>
       </c>
@@ -3958,7 +3958,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="132" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A132" s="2" t="s">
         <v>198</v>
       </c>
@@ -3966,7 +3966,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="133" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A133" s="2" t="s">
         <v>200</v>
       </c>
@@ -3974,7 +3974,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="134" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A134" s="2" t="s">
         <v>202</v>
       </c>
@@ -3982,7 +3982,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="135" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A135" s="2" t="s">
         <v>204</v>
       </c>
@@ -3990,7 +3990,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="136" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A136" s="2" t="s">
         <v>206</v>
       </c>
@@ -3998,7 +3998,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="137" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A137" s="2" t="s">
         <v>208</v>
       </c>
@@ -4006,7 +4006,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
         <v>210</v>
       </c>
@@ -4014,7 +4014,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
         <v>212</v>
       </c>
@@ -4022,7 +4022,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
         <v>214</v>
       </c>
@@ -4030,7 +4030,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
         <v>216</v>
       </c>
@@ -4038,7 +4038,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
         <v>217</v>
       </c>
@@ -4046,7 +4046,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
         <v>219</v>
       </c>
@@ -4054,7 +4054,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
         <v>221</v>
       </c>
@@ -4062,7 +4062,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
         <v>223</v>
       </c>
@@ -4070,7 +4070,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
         <v>224</v>
       </c>
@@ -4078,7 +4078,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
         <v>226</v>
       </c>
@@ -4086,7 +4086,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
         <v>227</v>
       </c>
@@ -4094,7 +4094,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
         <v>228</v>
       </c>
@@ -4102,7 +4102,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
         <v>229</v>
       </c>
@@ -4110,7 +4110,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
         <v>231</v>
       </c>
@@ -4118,7 +4118,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
         <v>233</v>
       </c>
@@ -4126,7 +4126,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
         <v>235</v>
       </c>
@@ -4134,7 +4134,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
         <v>237</v>
       </c>
@@ -4142,7 +4142,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155" s="1" t="s">
         <v>239</v>
       </c>
@@ -4150,7 +4150,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
         <v>241</v>
       </c>
@@ -4158,7 +4158,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
         <v>243</v>
       </c>
@@ -4166,7 +4166,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
         <v>245</v>
       </c>
@@ -4174,7 +4174,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" s="1" t="s">
         <v>247</v>
       </c>
@@ -4182,7 +4182,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
         <v>249</v>
       </c>
@@ -4190,7 +4190,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
         <v>251</v>
       </c>
@@ -4198,7 +4198,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
         <v>252</v>
       </c>
@@ -4206,7 +4206,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
         <v>254</v>
       </c>
@@ -4214,7 +4214,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
         <v>256</v>
       </c>
@@ -4222,7 +4222,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
         <v>257</v>
       </c>
@@ -4230,7 +4230,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
         <v>258</v>
       </c>
@@ -4238,7 +4238,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
         <v>260</v>
       </c>
@@ -4246,7 +4246,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
         <v>228</v>
       </c>
@@ -4254,7 +4254,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169" s="1" t="s">
         <v>262</v>
       </c>
@@ -4262,7 +4262,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
         <v>264</v>
       </c>
@@ -4270,7 +4270,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171" s="1" t="s">
         <v>226</v>
       </c>
@@ -4278,7 +4278,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172" s="1" t="s">
         <v>266</v>
       </c>
@@ -4286,7 +4286,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173" s="1" t="s">
         <v>267</v>
       </c>
@@ -4294,7 +4294,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
         <v>268</v>
       </c>
@@ -4302,7 +4302,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175" s="1" t="s">
         <v>227</v>
       </c>
@@ -4310,7 +4310,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176" s="1" t="s">
         <v>269</v>
       </c>
@@ -4318,7 +4318,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177" s="1" t="s">
         <v>257</v>
       </c>
@@ -4326,7 +4326,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178" s="1" t="s">
         <v>271</v>
       </c>
@@ -4334,7 +4334,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179" s="1" t="s">
         <v>273</v>
       </c>
@@ -4342,7 +4342,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180" s="1" t="s">
         <v>275</v>
       </c>
@@ -4350,7 +4350,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181" s="1" t="s">
         <v>277</v>
       </c>
@@ -4358,7 +4358,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182" s="1" t="s">
         <v>279</v>
       </c>
@@ -4366,7 +4366,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183" s="1" t="s">
         <v>281</v>
       </c>
@@ -4374,7 +4374,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184" s="1" t="s">
         <v>283</v>
       </c>
@@ -4382,7 +4382,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185" s="1" t="s">
         <v>285</v>
       </c>
@@ -4390,7 +4390,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186" s="1" t="s">
         <v>287</v>
       </c>
@@ -4398,7 +4398,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187" s="1" t="s">
         <v>289</v>
       </c>
@@ -4406,7 +4406,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188" s="1" t="s">
         <v>291</v>
       </c>
@@ -4414,7 +4414,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189" s="1" t="s">
         <v>293</v>
       </c>
@@ -4422,7 +4422,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190" s="1" t="s">
         <v>295</v>
       </c>
@@ -4430,7 +4430,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191" s="1" t="s">
         <v>297</v>
       </c>
@@ -4438,7 +4438,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192" s="1" t="s">
         <v>299</v>
       </c>
@@ -4446,7 +4446,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193" s="1" t="s">
         <v>301</v>
       </c>
@@ -4454,7 +4454,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194" s="1" t="s">
         <v>303</v>
       </c>
@@ -4462,7 +4462,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195" s="1" t="s">
         <v>305</v>
       </c>
@@ -4470,7 +4470,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196" s="1" t="s">
         <v>307</v>
       </c>
@@ -4478,7 +4478,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197" s="1" t="s">
         <v>309</v>
       </c>
@@ -4486,7 +4486,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198" s="1" t="s">
         <v>311</v>
       </c>
@@ -4494,7 +4494,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199" s="1" t="s">
         <v>313</v>
       </c>
@@ -4502,7 +4502,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200" s="1" t="s">
         <v>315</v>
       </c>
@@ -4510,7 +4510,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201" s="1" t="s">
         <v>317</v>
       </c>
@@ -4518,7 +4518,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202" s="1" t="s">
         <v>319</v>
       </c>
@@ -4526,7 +4526,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A203" s="1" t="s">
         <v>321</v>
       </c>
@@ -4534,7 +4534,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A204" s="1" t="s">
         <v>323</v>
       </c>
@@ -4542,7 +4542,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A205" s="1" t="s">
         <v>325</v>
       </c>
@@ -4550,7 +4550,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206" s="1" t="s">
         <v>327</v>
       </c>
@@ -4558,7 +4558,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A207" s="1" t="s">
         <v>329</v>
       </c>
@@ -4566,7 +4566,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A208" s="1" t="s">
         <v>331</v>
       </c>
@@ -4574,7 +4574,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A209" s="1" t="s">
         <v>333</v>
       </c>
@@ -4582,7 +4582,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A210" s="1" t="s">
         <v>335</v>
       </c>
@@ -4590,7 +4590,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A211" s="1" t="s">
         <v>337</v>
       </c>
@@ -4598,7 +4598,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A212" s="1" t="s">
         <v>338</v>
       </c>
@@ -4606,7 +4606,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A213" s="1" t="s">
         <v>340</v>
       </c>
@@ -4614,7 +4614,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A214" s="1" t="s">
         <v>342</v>
       </c>
@@ -4622,7 +4622,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A215" s="1" t="s">
         <v>343</v>
       </c>
@@ -4630,7 +4630,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A216" s="1" t="s">
         <v>345</v>
       </c>
@@ -4638,7 +4638,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A217" s="1" t="s">
         <v>347</v>
       </c>
@@ -4646,7 +4646,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A218" s="1" t="s">
         <v>349</v>
       </c>
@@ -4654,7 +4654,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A219" s="1" t="s">
         <v>351</v>
       </c>
@@ -4662,7 +4662,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A220" s="1" t="s">
         <v>353</v>
       </c>
@@ -4670,7 +4670,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A221" s="1" t="s">
         <v>355</v>
       </c>
@@ -4678,7 +4678,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A222" s="1" t="s">
         <v>357</v>
       </c>
@@ -4686,7 +4686,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A223" s="1" t="s">
         <v>359</v>
       </c>
@@ -4694,7 +4694,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A224" s="1" t="s">
         <v>360</v>
       </c>
@@ -4702,7 +4702,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A225" s="1" t="s">
         <v>362</v>
       </c>
@@ -4710,7 +4710,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A226" s="1" t="s">
         <v>363</v>
       </c>
@@ -4718,7 +4718,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A227" s="1" t="s">
         <v>365</v>
       </c>
@@ -4726,7 +4726,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A228" s="1" t="s">
         <v>367</v>
       </c>
@@ -4734,7 +4734,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A229" s="1" t="s">
         <v>368</v>
       </c>
@@ -4742,7 +4742,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A230" s="1" t="s">
         <v>370</v>
       </c>
@@ -4750,7 +4750,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A231" s="1" t="s">
         <v>372</v>
       </c>
@@ -4758,7 +4758,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A232" s="1" t="s">
         <v>373</v>
       </c>
@@ -4766,7 +4766,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A233" s="1" t="s">
         <v>374</v>
       </c>
@@ -4774,7 +4774,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A234" s="1" t="s">
         <v>376</v>
       </c>
@@ -4782,7 +4782,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A235" s="1" t="s">
         <v>377</v>
       </c>
@@ -4790,7 +4790,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A236" s="1" t="s">
         <v>378</v>
       </c>
@@ -4798,7 +4798,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A237" s="1" t="s">
         <v>379</v>
       </c>
@@ -4806,7 +4806,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A238" s="1" t="s">
         <v>381</v>
       </c>
@@ -4814,7 +4814,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A239" s="1" t="s">
         <v>383</v>
       </c>
@@ -4822,7 +4822,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A240" s="1" t="s">
         <v>384</v>
       </c>
@@ -4830,7 +4830,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A241" s="1" t="s">
         <v>385</v>
       </c>
@@ -4838,7 +4838,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A242" s="1" t="s">
         <v>387</v>
       </c>
@@ -4846,7 +4846,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A243" s="1" t="s">
         <v>388</v>
       </c>
@@ -4854,7 +4854,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A244" s="1" t="s">
         <v>389</v>
       </c>
@@ -4862,7 +4862,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A245" s="1" t="s">
         <v>391</v>
       </c>
@@ -4870,7 +4870,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A246" s="1" t="s">
         <v>393</v>
       </c>
@@ -4878,7 +4878,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A247" s="1" t="s">
         <v>395</v>
       </c>
@@ -4886,7 +4886,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A248" s="1" t="s">
         <v>396</v>
       </c>
@@ -4894,7 +4894,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A249" s="1" t="s">
         <v>398</v>
       </c>
@@ -4902,7 +4902,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A250" s="1" t="s">
         <v>399</v>
       </c>
@@ -4910,7 +4910,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A251" s="1" t="s">
         <v>401</v>
       </c>
@@ -4918,7 +4918,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A252" s="1" t="s">
         <v>403</v>
       </c>
@@ -4926,7 +4926,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A253" s="1" t="s">
         <v>404</v>
       </c>
@@ -4934,7 +4934,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A254" s="1" t="s">
         <v>405</v>
       </c>
@@ -4942,7 +4942,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A255" s="1" t="s">
         <v>406</v>
       </c>
@@ -4950,7 +4950,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A256" s="1" t="s">
         <v>407</v>
       </c>
@@ -4958,7 +4958,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A257" s="1" t="s">
         <v>409</v>
       </c>
@@ -4966,7 +4966,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A258" s="1" t="s">
         <v>404</v>
       </c>
@@ -4974,7 +4974,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A259" s="1" t="s">
         <v>410</v>
       </c>
@@ -4982,7 +4982,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A260" s="1" t="s">
         <v>411</v>
       </c>
@@ -4990,7 +4990,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A261" s="1" t="s">
         <v>413</v>
       </c>
@@ -4998,7 +4998,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A262" s="1" t="s">
         <v>414</v>
       </c>
@@ -5006,7 +5006,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A263" s="1" t="s">
         <v>416</v>
       </c>
@@ -5014,7 +5014,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A264" s="1" t="s">
         <v>417</v>
       </c>
@@ -5022,7 +5022,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A265" s="1" t="s">
         <v>418</v>
       </c>
@@ -5030,7 +5030,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A266" s="1" t="s">
         <v>419</v>
       </c>
@@ -5038,7 +5038,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A267" s="1" t="s">
         <v>421</v>
       </c>
@@ -5046,7 +5046,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A268" s="1" t="s">
         <v>423</v>
       </c>
@@ -5054,7 +5054,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A269" s="1" t="s">
         <v>421</v>
       </c>
@@ -5062,7 +5062,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A270" s="1" t="s">
         <v>423</v>
       </c>
@@ -5070,7 +5070,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A271" s="1" t="s">
         <v>423</v>
       </c>
@@ -5078,7 +5078,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A272" s="1" t="s">
         <v>423</v>
       </c>
@@ -5086,7 +5086,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A273" s="1" t="s">
         <v>425</v>
       </c>
@@ -5094,7 +5094,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A274" s="1" t="s">
         <v>427</v>
       </c>
@@ -5102,7 +5102,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A275" s="1" t="s">
         <v>429</v>
       </c>
@@ -5110,7 +5110,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A276" s="1" t="s">
         <v>431</v>
       </c>
@@ -5118,7 +5118,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A277" s="1" t="s">
         <v>433</v>
       </c>
@@ -5126,7 +5126,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A278" s="1" t="s">
         <v>435</v>
       </c>
@@ -5134,7 +5134,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A279" s="1" t="s">
         <v>437</v>
       </c>
@@ -5142,7 +5142,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A280" s="1" t="s">
         <v>439</v>
       </c>
@@ -5150,7 +5150,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A281" s="1" t="s">
         <v>441</v>
       </c>
@@ -5158,7 +5158,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A282" s="1" t="s">
         <v>443</v>
       </c>
@@ -5166,7 +5166,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A283" s="1" t="s">
         <v>445</v>
       </c>
@@ -5174,7 +5174,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A284" s="1" t="s">
         <v>447</v>
       </c>
@@ -5182,7 +5182,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A285" s="1" t="s">
         <v>449</v>
       </c>
@@ -5190,7 +5190,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A286" s="1" t="s">
         <v>451</v>
       </c>
@@ -5198,7 +5198,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A287" s="1" t="s">
         <v>455</v>
       </c>
@@ -5206,7 +5206,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A288" s="1" t="s">
         <v>458</v>
       </c>
@@ -5214,7 +5214,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A289" s="1" t="s">
         <v>460</v>
       </c>
@@ -5222,7 +5222,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A290" s="1" t="s">
         <v>462</v>
       </c>
@@ -5230,7 +5230,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A291" s="1" t="s">
         <v>464</v>
       </c>
@@ -5238,7 +5238,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A292" s="1" t="s">
         <v>466</v>
       </c>
@@ -5246,7 +5246,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A293" s="1" t="s">
         <v>469</v>
       </c>
@@ -5254,7 +5254,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A294" s="1" t="s">
         <v>471</v>
       </c>
@@ -5262,7 +5262,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A295" s="1" t="s">
         <v>474</v>
       </c>
@@ -5270,7 +5270,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A296" s="1" t="s">
         <v>476</v>
       </c>
@@ -5278,7 +5278,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A297" s="1" t="s">
         <v>477</v>
       </c>
@@ -5286,7 +5286,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A298" s="1" t="s">
         <v>479</v>
       </c>
@@ -5294,7 +5294,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A299" s="1" t="s">
         <v>481</v>
       </c>
@@ -5302,7 +5302,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A300" s="1" t="s">
         <v>483</v>
       </c>
@@ -5310,7 +5310,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A301" s="1" t="s">
         <v>484</v>
       </c>
@@ -5318,7 +5318,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A302" s="1" t="s">
         <v>486</v>
       </c>
@@ -5326,7 +5326,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A303" s="1" t="s">
         <v>487</v>
       </c>
@@ -5334,7 +5334,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A304" s="1" t="s">
         <v>489</v>
       </c>
@@ -5342,7 +5342,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A305" s="1" t="s">
         <v>490</v>
       </c>
@@ -5350,1857 +5350,1857 @@
         <v>491</v>
       </c>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A307" s="1" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A308" s="1" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A310" s="1" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A311" s="1" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A313" s="1" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A314" s="1" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A316" s="1" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A317" s="1" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A319" s="1" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A320" s="1" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="322" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A322" s="1" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="323" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A323" s="1" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="325" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A325" s="1" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="326" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A326" s="1" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="328" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A328" s="1" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="329" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A329" s="1" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="331" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A331" s="1" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="332" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A332" s="1" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="334" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A334" s="1" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="335" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A335" s="1" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="337" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A337" s="1" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="338" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A338" s="1" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="340" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A340" s="1" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="341" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A341" s="1" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="343" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A343" s="1" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="344" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A344" s="1" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="346" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A346" s="1" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="347" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A347" s="1" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="349" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A349" s="1" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="350" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A350" s="1" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="352" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A352" s="1" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="353" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A353" s="1" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="355" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A355" s="1" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="356" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A356" s="1" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="358" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A358" s="1" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="359" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A359" s="1" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="361" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A361" s="1" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="362" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A362" s="1" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="364" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A364" s="1" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="365" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A365" s="1" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="367" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A367" s="1" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="368" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A368" s="1" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="370" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A370" s="1" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="371" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A371" s="1" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="373" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A373" s="1" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="374" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A374" s="1" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="376" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A376" s="1" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="377" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A377" s="1" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="379" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A379" s="1" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="380" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A380" s="1" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="382" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A382" s="1" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="383" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A383" s="1" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="385" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A385" s="1" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="386" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A386" s="1" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="388" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A388" s="1" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="389" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A389" s="1" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="391" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A391" s="1" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="392" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A392" s="1" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="394" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A394" s="1" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="395" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A395" s="1" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="397" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A397" s="1" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="398" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A398" s="1" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="400" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A400" s="1" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="401" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A401" s="1" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="403" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A403" s="1" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="404" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A404" s="1" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="406" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A406" s="1" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="407" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A407" s="1" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="410" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A410" s="1" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="413" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A413" s="1" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="415" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A415" s="1" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="416" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A416" s="1" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="418" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A418" s="1" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="419" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A419" s="1" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="421" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A421" s="1" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="422" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A422" s="1" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="424" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A424" s="1" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="425" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A425" s="1" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="427" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A427" s="1" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="428" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A428" s="1" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="430" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A430" s="1" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="431" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A431" s="1" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="434" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A434" s="1" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="436" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A436" s="1" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="437" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A437" s="1" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="439" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A439" s="1" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="440" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A440" s="1" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="442" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A442" s="1" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="443" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A443" s="1" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="445" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A445" s="1" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="446" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A446" s="1" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="448" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A448" s="1" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="449" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A449" s="1" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="451" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A451" s="1" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="452" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A452" s="1" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="455" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A455" s="1" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="457" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A457" s="1" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="458" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A458" s="1" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="461" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A461" s="1" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="463" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A463" s="1" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="464" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A464" s="1" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="466" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A466" s="1" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="467" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A467" s="1" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="469" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A469" s="1" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="470" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A470" s="1" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="472" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A472" s="1" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="473" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A473" s="1" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="476" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A476" s="1" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="478" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A478" s="1" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="479" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A479" s="1" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="481" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A481" s="1" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="482" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A482" s="1" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="484" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A484" s="1" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="485" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A485" s="1" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="488" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A488" s="1" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="490" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A490" s="1" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="491" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A491" s="1" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="494" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A494" s="1" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="496" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A496" s="1" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="497" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A497" s="1" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="499" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A499" s="1" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="500" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A500" s="1" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="502" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A502" s="1" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="503" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A503" s="1" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="505" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A505" s="1" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="506" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A506" s="1" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="508" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A508" s="1" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="509" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A509" s="1" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="511" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A511" s="1" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="512" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A512" s="1" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="514" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A514" s="1" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="515" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A515" s="1" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="517" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A517" s="1" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="518" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A518" s="1" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="520" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A520" s="1" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="521" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A521" s="1" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="523" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A523" s="1" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="524" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A524" s="1" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="526" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A526" s="1" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="527" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A527" s="1" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="529" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A529" s="1" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="530" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A530" s="1" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="532" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A532" s="1" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="533" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A533" s="1" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="535" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A535" s="1" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="536" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A536" s="1" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="538" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A538" s="1" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="539" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A539" s="1" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="541" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A541" s="1" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="542" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A542" s="1" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="544" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A544" s="1" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="545" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A545" s="1" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="547" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A547" s="1" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="548" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A548" s="1" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="550" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A550" s="1" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="551" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A551" s="1" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="554" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A554" s="1" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="557" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A557" s="1" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="559" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A559" s="1" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="560" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A560" s="1" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="562" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A562" s="1" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="563" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A563" s="1" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="565" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A565" s="1" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="566" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A566" s="1" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="568" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A568" s="1" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="569" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A569" s="1" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="571" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A571" s="1" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="572" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A572" s="1" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="574" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A574" s="1" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="575" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A575" s="1" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="577" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A577" s="1" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="578" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A578" s="1" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="580" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A580" s="1" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="581" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A581" s="1" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="583" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A583" s="1" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="584" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A584" s="1" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="586" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A586" s="1" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="587" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A587" s="1" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="590" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A590" s="1" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="592" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A592" s="1" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="593" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A593" s="1" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="596" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A596" s="1" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="598" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A598" s="1" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="599" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A599" s="1" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="602" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A602" s="1" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="604" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A604" s="1" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="605" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A605" s="1" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="607" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A607" s="1" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="608" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A608" s="1" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="610" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A610" s="1" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="611" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A611" s="1" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="613" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A613" s="1" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="614" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A614" s="1" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="616" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A616" s="1" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="617" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A617" s="1" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="619" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A619" s="1" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="620" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A620" s="1" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="622" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A622" s="1" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="623" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A623" s="1" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="625" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A625" s="1" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="626" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A626" s="1" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="628" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A628" s="1" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="629" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A629" s="1" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="631" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A631" s="1" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="632" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A632" s="1" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="634" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="634" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A634" s="1" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="635" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A635" s="1" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="637" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A637" s="1" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="638" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A638" s="1" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="640" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="640" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A640" s="1" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="641" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A641" s="1" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="643" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A643" s="1" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="644" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A644" s="1" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="646" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A646" s="1" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="647" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A647" s="1" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="650" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="650" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A650" s="1" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="652" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="652" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A652" s="1" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="653" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="653" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A653" s="1" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="655" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="655" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A655" s="1" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="656" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="656" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A656" s="1" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="658" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="658" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A658" s="1" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="659" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="659" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A659" s="1" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="661" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="661" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A661" s="1" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="662" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="662" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A662" s="1" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="664" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="664" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A664" s="1" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="665" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="665" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A665" s="1" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="667" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="667" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A667" s="1" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="668" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="668" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A668" s="1" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="670" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="670" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A670" s="1" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="671" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="671" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A671" s="1" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="674" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="674" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A674" s="1" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="676" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="676" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A676" s="1" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="677" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="677" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A677" s="1" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="679" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="679" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A679" s="1" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="680" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="680" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A680" s="1" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="682" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="682" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A682" s="1" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="683" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="683" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A683" s="1" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="686" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="686" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A686" s="1" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="688" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="688" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A688" s="1" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="689" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="689" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A689" s="1" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="691" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="691" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A691" s="1" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="692" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="692" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A692" s="1" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="694" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="694" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A694" s="1" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="695" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="695" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A695" s="1" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="697" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="697" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A697" s="1" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="698" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="698" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A698" s="1" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="700" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="700" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A700" s="1" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="701" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="701" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A701" s="1" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="703" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="703" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A703" s="1" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="704" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="704" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A704" s="1" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="706" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="706" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A706" s="1" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="707" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="707" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A707" s="1" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="709" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="709" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A709" s="1" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="710" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="710" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A710" s="1" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="712" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="712" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A712" s="1" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="713" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="713" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A713" s="1" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="715" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="715" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A715" s="1" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="716" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="716" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A716" s="1" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="718" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="718" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A718" s="1" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="719" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="719" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A719" s="1" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="721" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="721" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A721" s="1" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="722" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="722" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A722" s="1" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="724" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="724" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A724" s="1" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="725" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="725" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A725" s="1" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="727" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="727" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A727" s="1" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="728" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="728" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A728" s="1" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="730" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="730" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A730" s="1" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="731" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="731" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A731" s="1" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="733" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="733" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A733" s="1" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="734" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="734" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A734" s="1" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="736" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="736" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A736" s="1" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="737" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="737" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A737" s="1" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="739" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="739" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A739" s="1" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="740" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="740" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A740" s="1" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="742" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="742" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A742" s="1" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="743" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="743" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A743" s="1" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="745" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="745" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A745" s="1" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="746" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="746" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A746" s="1" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="748" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="748" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A748" s="1" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="749" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="749" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A749" s="1" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="751" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="751" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A751" s="1" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="752" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="752" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A752" s="1" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="754" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="754" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A754" s="1" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="755" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="755" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A755" s="1" t="s">
         <v>656</v>
       </c>
     </row>
-    <row r="757" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="757" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A757" s="1" t="s">
         <v>657</v>
       </c>
     </row>
-    <row r="758" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="758" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A758" s="1" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="760" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="760" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A760" s="1" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="761" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="761" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A761" s="1" t="s">
         <v>660</v>
       </c>
     </row>
-    <row r="763" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="763" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A763" s="1" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="764" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="764" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A764" s="1" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="766" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="766" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A766" s="1" t="s">
         <v>663</v>
       </c>
     </row>
-    <row r="767" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="767" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A767" s="1" t="s">
         <v>664</v>
       </c>
     </row>
-    <row r="769" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="769" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A769" s="1" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="770" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="770" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A770" s="1" t="s">
         <v>666</v>
       </c>
     </row>
-    <row r="772" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="772" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A772" s="1" t="s">
         <v>667</v>
       </c>
     </row>
-    <row r="773" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="773" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A773" s="1" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="775" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="775" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A775" s="1" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="776" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="776" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A776" s="1" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="778" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="778" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A778" s="1" t="s">
         <v>671</v>
       </c>
     </row>
-    <row r="779" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="779" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A779" s="1" t="s">
         <v>672</v>
       </c>
     </row>
-    <row r="781" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="781" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A781" s="1" t="s">
         <v>673</v>
       </c>
     </row>
-    <row r="782" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="782" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A782" s="1" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="784" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="784" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A784" s="1" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="785" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="785" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A785" s="1" t="s">
         <v>676</v>
       </c>
     </row>
-    <row r="787" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="787" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A787" s="1" t="s">
         <v>677</v>
       </c>
     </row>
-    <row r="788" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="788" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A788" s="1" t="s">
         <v>678</v>
       </c>
     </row>
-    <row r="790" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="790" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A790" s="1" t="s">
         <v>679</v>
       </c>
     </row>
-    <row r="791" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="791" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A791" s="1" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="793" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="793" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A793" s="1" t="s">
         <v>681</v>
       </c>
     </row>
-    <row r="794" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="794" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A794" s="1" t="s">
         <v>682</v>
       </c>
     </row>
-    <row r="796" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="796" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A796" s="1" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="797" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="797" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A797" s="1" t="s">
         <v>684</v>
       </c>
     </row>
-    <row r="799" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="799" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A799" s="1" t="s">
         <v>685</v>
       </c>
     </row>
-    <row r="800" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="800" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A800" s="1" t="s">
         <v>686</v>
       </c>
     </row>
-    <row r="802" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="802" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A802" s="1" t="s">
         <v>687</v>
       </c>
     </row>
-    <row r="803" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="803" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A803" s="1" t="s">
         <v>688</v>
       </c>
     </row>
-    <row r="805" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="805" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A805" s="1" t="s">
         <v>689</v>
       </c>
     </row>
-    <row r="806" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="806" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A806" s="1" t="s">
         <v>690</v>
       </c>
     </row>
-    <row r="808" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="808" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A808" s="1" t="s">
         <v>691</v>
       </c>
     </row>
-    <row r="809" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="809" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A809" s="1" t="s">
         <v>692</v>
       </c>
     </row>
-    <row r="811" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="811" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A811" s="1" t="s">
         <v>693</v>
       </c>
     </row>
-    <row r="812" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="812" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A812" s="1" t="s">
         <v>690</v>
       </c>
     </row>
-    <row r="814" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="814" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A814" s="1" t="s">
         <v>694</v>
       </c>
     </row>
-    <row r="815" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="815" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A815" s="1" t="s">
         <v>695</v>
       </c>
     </row>
-    <row r="817" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="817" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A817" s="1" t="s">
         <v>696</v>
       </c>
     </row>
-    <row r="818" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="818" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A818" s="1" t="s">
         <v>697</v>
       </c>
     </row>
-    <row r="820" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="820" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A820" s="1" t="s">
         <v>698</v>
       </c>
     </row>
-    <row r="821" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="821" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A821" s="1" t="s">
         <v>699</v>
       </c>
     </row>
-    <row r="823" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="823" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A823" s="1" t="s">
         <v>689</v>
       </c>
     </row>
-    <row r="824" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="824" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A824" s="1" t="s">
         <v>690</v>
       </c>
     </row>
-    <row r="826" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="826" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A826" s="1" t="s">
         <v>700</v>
       </c>
     </row>
-    <row r="827" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="827" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A827" s="1" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="829" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="829" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A829" s="1" t="s">
         <v>702</v>
       </c>
     </row>
-    <row r="830" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="830" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A830" s="1" t="s">
         <v>703</v>
       </c>
     </row>
-    <row r="832" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="832" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A832" s="1" t="s">
         <v>704</v>
       </c>
     </row>
-    <row r="833" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="833" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A833" s="1" t="s">
         <v>705</v>
       </c>
     </row>
-    <row r="835" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="835" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A835" s="1" t="s">
         <v>693</v>
       </c>
     </row>
-    <row r="836" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="836" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A836" s="1" t="s">
         <v>690</v>
       </c>
     </row>
-    <row r="838" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="838" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A838" s="1" t="s">
         <v>693</v>
       </c>
     </row>
-    <row r="839" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="839" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A839" s="1" t="s">
         <v>690</v>
       </c>
     </row>
-    <row r="841" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="841" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A841" s="1" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="842" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="842" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A842" s="1" t="s">
         <v>707</v>
       </c>
     </row>
-    <row r="844" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="844" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A844" s="1" t="s">
         <v>708</v>
       </c>
     </row>
-    <row r="845" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="845" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A845" s="1" t="s">
         <v>709</v>
       </c>
     </row>
-    <row r="847" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="847" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A847" s="1" t="s">
         <v>710</v>
       </c>
     </row>
-    <row r="848" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="848" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A848" s="1" t="s">
         <v>711</v>
       </c>
     </row>
-    <row r="850" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="850" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A850" s="1" t="s">
         <v>693</v>
       </c>
     </row>
-    <row r="851" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="851" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A851" s="1" t="s">
         <v>690</v>
       </c>
     </row>
-    <row r="853" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="853" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A853" s="1" t="s">
         <v>712</v>
       </c>
     </row>
-    <row r="854" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="854" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A854" s="1" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="856" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="856" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A856" s="1" t="s">
         <v>714</v>
       </c>
     </row>
-    <row r="857" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="857" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A857" s="1" t="s">
         <v>715</v>
       </c>
     </row>
-    <row r="859" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="859" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A859" s="1" t="s">
         <v>716</v>
       </c>
     </row>
-    <row r="860" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="860" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A860" s="1" t="s">
         <v>717</v>
       </c>
     </row>
-    <row r="862" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="862" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A862" s="1" t="s">
         <v>718</v>
       </c>
     </row>
-    <row r="863" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="863" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A863" s="1" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="865" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="865" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A865" s="1" t="s">
         <v>720</v>
       </c>
     </row>
-    <row r="866" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="866" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A866" s="1" t="s">
         <v>721</v>
       </c>
     </row>
-    <row r="868" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="868" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A868" s="1" t="s">
         <v>722</v>
       </c>
     </row>
-    <row r="869" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="869" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A869" s="1" t="s">
         <v>723</v>
       </c>
     </row>
-    <row r="871" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="871" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A871" s="1" t="s">
         <v>724</v>
       </c>
     </row>
-    <row r="872" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="872" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A872" s="1" t="s">
         <v>725</v>
       </c>
     </row>
-    <row r="874" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="874" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A874" s="1" t="s">
         <v>726</v>
       </c>
     </row>
-    <row r="875" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="875" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A875" s="1" t="s">
         <v>727</v>
       </c>
     </row>
-    <row r="877" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="877" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A877" s="1" t="s">
         <v>728</v>
       </c>
     </row>
-    <row r="878" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="878" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A878" s="1" t="s">
         <v>729</v>
       </c>
     </row>
-    <row r="880" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="880" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A880" s="1" t="s">
         <v>730</v>
       </c>
     </row>
-    <row r="881" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="881" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A881" s="1" t="s">
         <v>731</v>
       </c>
     </row>
-    <row r="883" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="883" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A883" s="1" t="s">
         <v>732</v>
       </c>
     </row>
-    <row r="884" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="884" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A884" s="1" t="s">
         <v>733</v>
       </c>
     </row>
-    <row r="886" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="886" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A886" s="1" t="s">
         <v>734</v>
       </c>
@@ -7208,7 +7208,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="887" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="887" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A887" s="1" t="s">
         <v>736</v>
       </c>
@@ -7216,7 +7216,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="888" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="888" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A888" s="1" t="s">
         <v>738</v>
       </c>
@@ -7224,7 +7224,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="889" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="889" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A889" s="1" t="s">
         <v>740</v>
       </c>
@@ -7232,7 +7232,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="890" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="890" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A890" s="1" t="s">
         <v>742</v>
       </c>
@@ -7240,7 +7240,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="891" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="891" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A891" s="1" t="s">
         <v>744</v>
       </c>
@@ -7248,7 +7248,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="892" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="892" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A892" s="1" t="s">
         <v>745</v>
       </c>
@@ -7256,7 +7256,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="893" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="893" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A893" s="1" t="s">
         <v>747</v>
       </c>
@@ -7264,7 +7264,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="894" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="894" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A894" s="1" t="s">
         <v>749</v>
       </c>
@@ -7272,7 +7272,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="895" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="895" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A895" s="1" t="s">
         <v>751</v>
       </c>
@@ -7280,7 +7280,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="896" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="896" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A896" s="1" t="s">
         <v>744</v>
       </c>
@@ -7288,7 +7288,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="897" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="897" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A897" s="1" t="s">
         <v>753</v>
       </c>
@@ -7296,7 +7296,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="898" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="898" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A898" s="1" t="s">
         <v>755</v>
       </c>
@@ -7304,7 +7304,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="899" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="899" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A899" s="1" t="s">
         <v>757</v>
       </c>
@@ -7312,7 +7312,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="900" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="900" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A900" s="1" t="s">
         <v>759</v>
       </c>
@@ -7320,7 +7320,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="901" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="901" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A901" s="1" t="s">
         <v>760</v>
       </c>
@@ -7328,7 +7328,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="902" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="902" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A902" s="1" t="s">
         <v>762</v>
       </c>
@@ -7336,7 +7336,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="903" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="903" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A903" s="1" t="s">
         <v>764</v>
       </c>
@@ -7344,7 +7344,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="904" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="904" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A904" s="1" t="s">
         <v>765</v>
       </c>
@@ -7352,7 +7352,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="905" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="905" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A905" s="1" t="s">
         <v>766</v>
       </c>
@@ -7360,7 +7360,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="906" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="906" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A906" s="1" t="s">
         <v>768</v>
       </c>
@@ -7368,7 +7368,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="907" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="907" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A907" s="1" t="s">
         <v>769</v>
       </c>
@@ -7376,7 +7376,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="908" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="908" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A908" s="1" t="s">
         <v>771</v>
       </c>
@@ -7384,12 +7384,12 @@
         <v>773</v>
       </c>
     </row>
-    <row r="909" spans="1:2" ht="1" x14ac:dyDescent="0.2">
+    <row r="909" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A909" s="1" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="910" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="910" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A910" s="1" t="s">
         <v>774</v>
       </c>
@@ -7397,7 +7397,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="911" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="911" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A911" s="1" t="s">
         <v>776</v>
       </c>
@@ -7405,7 +7405,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="912" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="912" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A912" s="1" t="s">
         <v>778</v>
       </c>
@@ -7413,7 +7413,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="913" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="913" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A913" s="1" t="s">
         <v>780</v>
       </c>
@@ -7421,7 +7421,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="914" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="914" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A914" s="1" t="s">
         <v>782</v>
       </c>
@@ -7429,7 +7429,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="915" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="915" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A915" s="1" t="s">
         <v>783</v>
       </c>
@@ -7437,7 +7437,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="916" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="916" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A916" s="1" t="s">
         <v>785</v>
       </c>
@@ -7445,7 +7445,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="917" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="917" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A917" s="1" t="s">
         <v>776</v>
       </c>
@@ -7453,7 +7453,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="918" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="918" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A918" s="1" t="s">
         <v>787</v>
       </c>
@@ -7461,7 +7461,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="919" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="919" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A919" s="1" t="s">
         <v>785</v>
       </c>
@@ -7469,7 +7469,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="920" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="920" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A920" s="1" t="s">
         <v>788</v>
       </c>
@@ -7477,7 +7477,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="921" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="921" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A921" s="1" t="s">
         <v>790</v>
       </c>
@@ -7485,7 +7485,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="922" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="922" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A922" s="1" t="s">
         <v>778</v>
       </c>
@@ -7493,7 +7493,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="923" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="923" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A923" s="1" t="s">
         <v>792</v>
       </c>
@@ -7501,7 +7501,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="924" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="924" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A924" s="1" t="s">
         <v>793</v>
       </c>
@@ -7509,7 +7509,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="925" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="925" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A925" s="1" t="s">
         <v>794</v>
       </c>
@@ -7517,7 +7517,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="926" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="926" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A926" s="1" t="s">
         <v>774</v>
       </c>
@@ -7525,7 +7525,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="927" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="927" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A927" s="1" t="s">
         <v>795</v>
       </c>
@@ -7533,7 +7533,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="928" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="928" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A928" s="1" t="s">
         <v>774</v>
       </c>
@@ -7541,7 +7541,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="929" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="929" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A929" s="1" t="s">
         <v>796</v>
       </c>
@@ -7549,7 +7549,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="930" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="930" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A930" s="1" t="s">
         <v>783</v>
       </c>
@@ -7557,7 +7557,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="931" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="931" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A931" s="1" t="s">
         <v>796</v>
       </c>
@@ -7565,7 +7565,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="932" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="932" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A932" s="1" t="s">
         <v>788</v>
       </c>
@@ -7573,7 +7573,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="933" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="933" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A933" s="1" t="s">
         <v>797</v>
       </c>
@@ -7581,7 +7581,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="934" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="934" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A934" s="1" t="s">
         <v>798</v>
       </c>
@@ -7589,7 +7589,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="935" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="935" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A935" s="1" t="s">
         <v>799</v>
       </c>
@@ -7597,7 +7597,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="936" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="936" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A936" s="1" t="s">
         <v>800</v>
       </c>
@@ -7605,7 +7605,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="937" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="937" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A937" s="1" t="s">
         <v>801</v>
       </c>
@@ -7613,7 +7613,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="938" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="938" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A938" s="1" t="s">
         <v>802</v>
       </c>
@@ -7621,7 +7621,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="939" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="939" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A939" s="1" t="s">
         <v>803</v>
       </c>
@@ -7629,7 +7629,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="940" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="940" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A940" s="1" t="s">
         <v>804</v>
       </c>
@@ -7637,7 +7637,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="941" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="941" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A941" s="1" t="s">
         <v>805</v>
       </c>
@@ -7645,7 +7645,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="942" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="942" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A942" s="1" t="s">
         <v>807</v>
       </c>
@@ -7653,7 +7653,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="943" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="943" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A943" s="1" t="s">
         <v>809</v>
       </c>
@@ -7661,7 +7661,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="944" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="944" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A944" s="1" t="s">
         <v>811</v>
       </c>
@@ -7669,7 +7669,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="945" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="945" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A945" s="1" t="s">
         <v>805</v>
       </c>
@@ -7677,7 +7677,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="946" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="946" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A946" s="1" t="s">
         <v>813</v>
       </c>
@@ -7685,7 +7685,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="947" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="947" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A947" s="1" t="s">
         <v>814</v>
       </c>
@@ -7693,7 +7693,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="948" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="948" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A948" s="1" t="s">
         <v>816</v>
       </c>
@@ -7701,7 +7701,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="949" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="949" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A949" s="1" t="s">
         <v>818</v>
       </c>
@@ -7709,7 +7709,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="950" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="950" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A950" s="1" t="s">
         <v>820</v>
       </c>
@@ -7717,7 +7717,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="951" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="951" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A951" s="1" t="s">
         <v>822</v>
       </c>
@@ -7725,7 +7725,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="952" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="952" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A952" s="1" t="s">
         <v>824</v>
       </c>
